--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H2">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I2">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J2">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N2">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O2">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P2">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q2">
-        <v>447.8969778558057</v>
+        <v>495.979893577506</v>
       </c>
       <c r="R2">
-        <v>447.8969778558057</v>
+        <v>1983.919574310024</v>
       </c>
       <c r="S2">
-        <v>0.04984401162310355</v>
+        <v>0.04861884963005653</v>
       </c>
       <c r="T2">
-        <v>0.04984401162310355</v>
+        <v>0.02886329954926218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H3">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I3">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J3">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N3">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O3">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P3">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q3">
-        <v>218.2836077381634</v>
+        <v>251.1494696047517</v>
       </c>
       <c r="R3">
-        <v>218.2836077381634</v>
+        <v>1506.89681762851</v>
       </c>
       <c r="S3">
-        <v>0.02429159208289345</v>
+        <v>0.02461913971815824</v>
       </c>
       <c r="T3">
-        <v>0.02429159208289345</v>
+        <v>0.02192327491509737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H4">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I4">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J4">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N4">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O4">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P4">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q4">
-        <v>376.1858352940512</v>
+        <v>461.2938575487207</v>
       </c>
       <c r="R4">
-        <v>376.1858352940512</v>
+        <v>2767.763145292324</v>
       </c>
       <c r="S4">
-        <v>0.04186366971397629</v>
+        <v>0.04521872153659239</v>
       </c>
       <c r="T4">
-        <v>0.04186366971397629</v>
+        <v>0.04026714478673551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H5">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I5">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J5">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N5">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O5">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P5">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q5">
-        <v>365.9732630942642</v>
+        <v>404.8919369656173</v>
       </c>
       <c r="R5">
-        <v>365.9732630942642</v>
+        <v>2429.351621793704</v>
       </c>
       <c r="S5">
-        <v>0.04072716825807265</v>
+        <v>0.03968987544588332</v>
       </c>
       <c r="T5">
-        <v>0.04072716825807265</v>
+        <v>0.03534372283952281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H6">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I6">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J6">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N6">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O6">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P6">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q6">
-        <v>240.6234563149466</v>
+        <v>268.2678326886423</v>
       </c>
       <c r="R6">
-        <v>240.6234563149466</v>
+        <v>1609.606996131854</v>
       </c>
       <c r="S6">
-        <v>0.026777671978878</v>
+        <v>0.02629718177483353</v>
       </c>
       <c r="T6">
-        <v>0.026777671978878</v>
+        <v>0.02341756666325516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H7">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I7">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J7">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N7">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O7">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P7">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q7">
-        <v>251.3215248873032</v>
+        <v>272.1846049594955</v>
       </c>
       <c r="R7">
-        <v>251.3215248873032</v>
+        <v>1088.738419837982</v>
       </c>
       <c r="S7">
-        <v>0.02796820167795753</v>
+        <v>0.02668112669787914</v>
       </c>
       <c r="T7">
-        <v>0.02796820167795753</v>
+        <v>0.01583964569405643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H8">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J8">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N8">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O8">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P8">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q8">
-        <v>218.5050679419944</v>
+        <v>257.914027400978</v>
       </c>
       <c r="R8">
-        <v>218.5050679419944</v>
+        <v>1547.484164405868</v>
       </c>
       <c r="S8">
-        <v>0.02431623718102886</v>
+        <v>0.02528224123208515</v>
       </c>
       <c r="T8">
-        <v>0.02431623718102886</v>
+        <v>0.02251376495467071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H9">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J9">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N9">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O9">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P9">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q9">
-        <v>106.4889403089613</v>
+        <v>130.5999941210494</v>
       </c>
       <c r="R9">
-        <v>106.4889403089613</v>
+        <v>1175.399947089445</v>
       </c>
       <c r="S9">
-        <v>0.01185057332581653</v>
+        <v>0.01280217516491992</v>
       </c>
       <c r="T9">
-        <v>0.01185057332581653</v>
+        <v>0.01710045165254669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H10">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J10">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N10">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O10">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P10">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q10">
-        <v>183.5210228326329</v>
+        <v>239.8769751684131</v>
       </c>
       <c r="R10">
-        <v>183.5210228326329</v>
+        <v>2158.892776515718</v>
       </c>
       <c r="S10">
-        <v>0.02042305362037627</v>
+        <v>0.02351414389261607</v>
       </c>
       <c r="T10">
-        <v>0.02042305362037627</v>
+        <v>0.03140891884439565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H11">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J11">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N11">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O11">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P11">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q11">
-        <v>178.5388530643533</v>
+        <v>210.5474666961809</v>
       </c>
       <c r="R11">
-        <v>178.5388530643533</v>
+        <v>1894.927200265628</v>
       </c>
       <c r="S11">
-        <v>0.01986861512198045</v>
+        <v>0.02063909395490706</v>
       </c>
       <c r="T11">
-        <v>0.01986861512198045</v>
+        <v>0.02756858297763064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H12">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J12">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N12">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O12">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P12">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q12">
-        <v>117.3873619827404</v>
+        <v>139.5016976430059</v>
       </c>
       <c r="R12">
-        <v>117.3873619827404</v>
+        <v>1255.515278787053</v>
       </c>
       <c r="S12">
-        <v>0.01306339922873256</v>
+        <v>0.01367477220078688</v>
       </c>
       <c r="T12">
-        <v>0.01306339922873256</v>
+        <v>0.01826601947455922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H13">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J13">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N13">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O13">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P13">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q13">
-        <v>122.6063795600447</v>
+        <v>141.5384546242248</v>
       </c>
       <c r="R13">
-        <v>122.6063795600447</v>
+        <v>849.2307277453491</v>
       </c>
       <c r="S13">
-        <v>0.0136441952279145</v>
+        <v>0.01387442703092241</v>
       </c>
       <c r="T13">
-        <v>0.0136441952279145</v>
+        <v>0.0123551383830046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H14">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I14">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J14">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N14">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O14">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P14">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q14">
-        <v>95.77898161647074</v>
+        <v>108.821694224594</v>
       </c>
       <c r="R14">
-        <v>95.77898161647074</v>
+        <v>652.930165347564</v>
       </c>
       <c r="S14">
-        <v>0.01065872044012165</v>
+        <v>0.0106673388508374</v>
       </c>
       <c r="T14">
-        <v>0.01065872044012165</v>
+        <v>0.009499235347647733</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H15">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I15">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J15">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N15">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O15">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P15">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q15">
-        <v>46.67810386401217</v>
+        <v>55.10407002360945</v>
       </c>
       <c r="R15">
-        <v>46.67810386401217</v>
+        <v>495.936630212485</v>
       </c>
       <c r="S15">
-        <v>0.005194551574516947</v>
+        <v>0.005401623189112837</v>
       </c>
       <c r="T15">
-        <v>0.005194551574516947</v>
+        <v>0.007215195464893247</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H16">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I16">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J16">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N16">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O16">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P16">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q16">
-        <v>80.4441601180109</v>
+        <v>101.2113187729571</v>
       </c>
       <c r="R16">
-        <v>80.4441601180109</v>
+        <v>910.9018689566141</v>
       </c>
       <c r="S16">
-        <v>0.008952191798944876</v>
+        <v>0.009921325344034651</v>
       </c>
       <c r="T16">
-        <v>0.008952191798944876</v>
+        <v>0.01325236861621335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H17">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I17">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J17">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N17">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O17">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P17">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q17">
-        <v>78.2602879033268</v>
+        <v>88.83631600600488</v>
       </c>
       <c r="R17">
-        <v>78.2602879033268</v>
+        <v>799.526844054044</v>
       </c>
       <c r="S17">
-        <v>0.008709160572047132</v>
+        <v>0.008708255204521094</v>
       </c>
       <c r="T17">
-        <v>0.008709160572047132</v>
+        <v>0.01163201527745091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H18">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I18">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J18">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N18">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O18">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P18">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q18">
-        <v>51.45529159230112</v>
+        <v>58.85996677922989</v>
       </c>
       <c r="R18">
-        <v>51.45529159230112</v>
+        <v>529.739701013069</v>
       </c>
       <c r="S18">
-        <v>0.005726178739751449</v>
+        <v>0.005769798153364671</v>
       </c>
       <c r="T18">
-        <v>0.005726178739751449</v>
+        <v>0.007706983625480095</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H19">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I19">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J19">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N19">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O19">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P19">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q19">
-        <v>53.74298310124754</v>
+        <v>59.71933587851284</v>
       </c>
       <c r="R19">
-        <v>53.74298310124754</v>
+        <v>358.316015271077</v>
       </c>
       <c r="S19">
-        <v>0.00598076344962799</v>
+        <v>0.005854038538016929</v>
       </c>
       <c r="T19">
-        <v>0.00598076344962799</v>
+        <v>0.005213004910072499</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H20">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I20">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J20">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N20">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O20">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P20">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q20">
-        <v>137.1321496371873</v>
+        <v>142.582519711372</v>
       </c>
       <c r="R20">
-        <v>137.1321496371873</v>
+        <v>855.495118268232</v>
       </c>
       <c r="S20">
-        <v>0.01526068894936291</v>
+        <v>0.01397677239639651</v>
       </c>
       <c r="T20">
-        <v>0.01526068894936291</v>
+        <v>0.01244627664409989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H21">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I21">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J21">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N21">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O21">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P21">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q21">
-        <v>66.83166406479226</v>
+        <v>72.19954813515889</v>
       </c>
       <c r="R21">
-        <v>66.83166406479226</v>
+        <v>649.7959332164301</v>
       </c>
       <c r="S21">
-        <v>0.00743733136218945</v>
+        <v>0.007077421926969256</v>
       </c>
       <c r="T21">
-        <v>0.00743733136218945</v>
+        <v>0.00945363658344919</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H22">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I22">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J22">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N22">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O22">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P22">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q22">
-        <v>115.1764240604943</v>
+        <v>132.6111025635703</v>
       </c>
       <c r="R22">
-        <v>115.1764240604943</v>
+        <v>1193.499923072132</v>
       </c>
       <c r="S22">
-        <v>0.01281735600686944</v>
+        <v>0.01299931577530108</v>
       </c>
       <c r="T22">
-        <v>0.01281735600686944</v>
+        <v>0.01736378139402799</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H23">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I23">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J23">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N23">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O23">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P23">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q23">
-        <v>112.0496515026928</v>
+        <v>116.3968808633858</v>
       </c>
       <c r="R23">
-        <v>112.0496515026928</v>
+        <v>1047.571927770472</v>
       </c>
       <c r="S23">
-        <v>0.01246939454381167</v>
+        <v>0.01140990294442293</v>
       </c>
       <c r="T23">
-        <v>0.01246939454381167</v>
+        <v>0.01524072988752728</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H24">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I24">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J24">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N24">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O24">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P24">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q24">
-        <v>73.67143215737762</v>
+        <v>77.12067371593578</v>
       </c>
       <c r="R24">
-        <v>73.67143215737762</v>
+        <v>694.0860634434221</v>
       </c>
       <c r="S24">
-        <v>0.008198491845875304</v>
+        <v>0.007559819434853367</v>
       </c>
       <c r="T24">
-        <v>0.008198491845875304</v>
+        <v>0.01009799702646871</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H25">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I25">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J25">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N25">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O25">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P25">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q25">
-        <v>76.94684863220276</v>
+        <v>78.24665335088768</v>
       </c>
       <c r="R25">
-        <v>76.94684863220276</v>
+        <v>469.479920105326</v>
       </c>
       <c r="S25">
-        <v>0.008562995079684235</v>
+        <v>0.007670194543334812</v>
       </c>
       <c r="T25">
-        <v>0.008562995079684235</v>
+        <v>0.006830286742382909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H26">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I26">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J26">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N26">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O26">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P26">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q26">
-        <v>682.4483789387652</v>
+        <v>780.3506600904821</v>
       </c>
       <c r="R26">
-        <v>682.4483789387652</v>
+        <v>4682.103960542892</v>
       </c>
       <c r="S26">
-        <v>0.07594595769508175</v>
+        <v>0.0764945351473723</v>
       </c>
       <c r="T26">
-        <v>0.07594595769508175</v>
+        <v>0.06811816914550894</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H27">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I27">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J27">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N27">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O27">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P27">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q27">
-        <v>332.5927648874936</v>
+        <v>395.1463696921339</v>
       </c>
       <c r="R27">
-        <v>332.5927648874936</v>
+        <v>3556.317327229206</v>
       </c>
       <c r="S27">
-        <v>0.03701243468570434</v>
+        <v>0.03873455795022551</v>
       </c>
       <c r="T27">
-        <v>0.03701243468570434</v>
+        <v>0.05173952293088648</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H28">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I28">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J28">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N28">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O28">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P28">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q28">
-        <v>573.1840717148139</v>
+        <v>725.7773367330603</v>
       </c>
       <c r="R28">
-        <v>573.1840717148139</v>
+        <v>6531.996030597543</v>
       </c>
       <c r="S28">
-        <v>0.06378652892346297</v>
+        <v>0.07114493885025483</v>
       </c>
       <c r="T28">
-        <v>0.06378652892346297</v>
+        <v>0.09503155295561712</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H29">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I29">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J29">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N29">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O29">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P29">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q29">
-        <v>557.6234546820652</v>
+        <v>637.0372960029258</v>
       </c>
       <c r="R29">
-        <v>557.6234546820652</v>
+        <v>5733.335664026332</v>
       </c>
       <c r="S29">
-        <v>0.06205487272887108</v>
+        <v>0.06244612111128676</v>
       </c>
       <c r="T29">
-        <v>0.06205487272887108</v>
+        <v>0.08341214373310087</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H30">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I30">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J30">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N30">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O30">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P30">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q30">
-        <v>366.6313813567286</v>
+        <v>422.0795702213508</v>
       </c>
       <c r="R30">
-        <v>366.6313813567286</v>
+        <v>3798.716131992157</v>
       </c>
       <c r="S30">
-        <v>0.04080040664981328</v>
+        <v>0.04137470776989058</v>
       </c>
       <c r="T30">
-        <v>0.04080040664981328</v>
+        <v>0.05526609195256137</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H31">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I31">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J31">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N31">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O31">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P31">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q31">
-        <v>382.9317359381138</v>
+        <v>428.2420293584302</v>
       </c>
       <c r="R31">
-        <v>382.9317359381138</v>
+        <v>2569.452176150581</v>
       </c>
       <c r="S31">
-        <v>0.04261438420131363</v>
+        <v>0.04197878805220995</v>
       </c>
       <c r="T31">
-        <v>0.04261438420131363</v>
+        <v>0.03738199309996247</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H32">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I32">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J32">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.7684089398664</v>
+        <v>69.292158</v>
       </c>
       <c r="N32">
-        <v>67.7684089398664</v>
+        <v>138.584316</v>
       </c>
       <c r="O32">
-        <v>0.2356999380470773</v>
+        <v>0.2302847784735656</v>
       </c>
       <c r="P32">
-        <v>0.2356999380470773</v>
+        <v>0.1742377818809482</v>
       </c>
       <c r="Q32">
-        <v>536.2318898493845</v>
+        <v>563.5762645947719</v>
       </c>
       <c r="R32">
-        <v>536.2318898493845</v>
+        <v>2254.305058379088</v>
       </c>
       <c r="S32">
-        <v>0.05967432215837858</v>
+        <v>0.05524504121681768</v>
       </c>
       <c r="T32">
-        <v>0.05967432215837858</v>
+        <v>0.03279703623975874</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H33">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I33">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J33">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>33.0270877577378</v>
+        <v>35.08748833333333</v>
       </c>
       <c r="N33">
-        <v>33.0270877577378</v>
+        <v>105.262465</v>
       </c>
       <c r="O33">
-        <v>0.1148688992430332</v>
+        <v>0.1166093640500485</v>
       </c>
       <c r="P33">
-        <v>0.1148688992430332</v>
+        <v>0.1323432473911474</v>
       </c>
       <c r="Q33">
-        <v>261.3338273924677</v>
+        <v>285.3782618361033</v>
       </c>
       <c r="R33">
-        <v>261.3338273924677</v>
+        <v>1712.26957101662</v>
       </c>
       <c r="S33">
-        <v>0.0290824162119125</v>
+        <v>0.02797444610066279</v>
       </c>
       <c r="T33">
-        <v>0.0290824162119125</v>
+        <v>0.02491116584427444</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H34">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I34">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J34">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>56.9182575101004</v>
+        <v>64.44625533333334</v>
       </c>
       <c r="N34">
-        <v>56.9182575101004</v>
+        <v>193.338766</v>
       </c>
       <c r="O34">
-        <v>0.19796288534356</v>
+        <v>0.214179960059658</v>
       </c>
       <c r="P34">
-        <v>0.19796288534356</v>
+        <v>0.2430788613874581</v>
       </c>
       <c r="Q34">
-        <v>450.3777684770185</v>
+        <v>524.1629196752814</v>
       </c>
       <c r="R34">
-        <v>450.3777684770185</v>
+        <v>3144.977518051688</v>
       </c>
       <c r="S34">
-        <v>0.05012008527993011</v>
+        <v>0.05138151466085898</v>
       </c>
       <c r="T34">
-        <v>0.05012008527993011</v>
+        <v>0.04575509479046846</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H35">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I35">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J35">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.3730589412771</v>
+        <v>56.56647866666666</v>
       </c>
       <c r="N35">
-        <v>55.3730589412771</v>
+        <v>169.699436</v>
       </c>
       <c r="O35">
-        <v>0.1925886525315537</v>
+        <v>0.1879923989202791</v>
       </c>
       <c r="P35">
-        <v>0.1925886525315537</v>
+        <v>0.2133578616146428</v>
       </c>
       <c r="Q35">
-        <v>438.1510575107345</v>
+        <v>460.0740641998746</v>
       </c>
       <c r="R35">
-        <v>438.1510575107345</v>
+        <v>2760.444385199248</v>
       </c>
       <c r="S35">
-        <v>0.04875944130677076</v>
+        <v>0.04509915025925788</v>
       </c>
       <c r="T35">
-        <v>0.04875944130677076</v>
+        <v>0.04016066689941031</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H36">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I36">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J36">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>36.4071864609122</v>
+        <v>37.47905366666667</v>
       </c>
       <c r="N36">
-        <v>36.4071864609122</v>
+        <v>112.437161</v>
       </c>
       <c r="O36">
-        <v>0.126624952947026</v>
+        <v>0.1245574653776436</v>
       </c>
       <c r="P36">
-        <v>0.126624952947026</v>
+        <v>0.1413637711617457</v>
       </c>
       <c r="Q36">
-        <v>288.0795743243306</v>
+        <v>304.8296614749246</v>
       </c>
       <c r="R36">
-        <v>288.0795743243306</v>
+        <v>1828.977968849548</v>
       </c>
       <c r="S36">
-        <v>0.03205880450397536</v>
+        <v>0.02988118604391455</v>
       </c>
       <c r="T36">
-        <v>0.03205880450397536</v>
+        <v>0.02660911241942117</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H37">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I37">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J37">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>38.0258423610902</v>
+        <v>38.0262565</v>
       </c>
       <c r="N37">
-        <v>38.0258423610902</v>
+        <v>76.052513</v>
       </c>
       <c r="O37">
-        <v>0.1322546718877499</v>
+        <v>0.1263760331188052</v>
       </c>
       <c r="P37">
-        <v>0.1322546718877499</v>
+        <v>0.09561847656405779</v>
       </c>
       <c r="Q37">
-        <v>300.8875319840492</v>
+        <v>309.280244884171</v>
       </c>
       <c r="R37">
-        <v>300.8875319840492</v>
+        <v>1237.120979536684</v>
       </c>
       <c r="S37">
-        <v>0.03348413225125201</v>
+        <v>0.03031745825644197</v>
       </c>
       <c r="T37">
-        <v>0.03348413225125201</v>
+        <v>0.01799840773457887</v>
       </c>
     </row>
   </sheetData>
